--- a/docs/数据处理流程.xlsx
+++ b/docs/数据处理流程.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="16395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="16395" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据流" sheetId="1" r:id="rId1"/>
+    <sheet name="数据同步方案" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
   <si>
     <t>步骤一</t>
   </si>
@@ -231,6 +232,118 @@
   </si>
   <si>
     <t>步骤三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理因子文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FactorHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handle_factor</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理因子文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor/organized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成模型输入文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FactorTools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prepare_training_data</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型训练输入文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data\model\xgboost\input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 不同节点不通过ftp或者是文件传输同步文件，因为这样不见得会快，还很难控制
+2. 因为两个节点公用一个数据库，在过程表增加节点ip信息</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -251,12 +364,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -318,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +458,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,14 +473,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,6 +514,753 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="161925"/>
+          <a:ext cx="2095500" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>115</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="2667000"/>
+          <a:ext cx="2095500" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>107</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆柱形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="676275"/>
+          <a:ext cx="1876425" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="1162050"/>
+          <a:ext cx="2105025" cy="852488"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2352675" y="2014538"/>
+          <a:ext cx="2133600" cy="1652587"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="折角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="1381125"/>
+          <a:ext cx="419100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="折角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="1371600"/>
+          <a:ext cx="419100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="折角形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1381125"/>
+          <a:ext cx="419100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="折角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="3981450"/>
+          <a:ext cx="419100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="折角形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="3971925"/>
+          <a:ext cx="419100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="折角形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="3981450"/>
+          <a:ext cx="419100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="1590675"/>
+          <a:ext cx="1590675" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>future_process_record</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>future_validation_result</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="2343150"/>
+          <a:ext cx="1628776" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>stock_process_record</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>stock_validation_result</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,15 +1521,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -682,7 +1559,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L1" s="7"/>
@@ -690,34 +1567,34 @@
       <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1050,26 +1927,26 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="2"/>
       <c r="L14" s="5" t="s">
         <v>41</v>
@@ -1297,8 +2174,307 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
@@ -1308,16 +2484,911 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="K1:AD40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+    </row>
+    <row r="2" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+    </row>
+    <row r="3" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+    </row>
+    <row r="4" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+    </row>
+    <row r="5" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+    </row>
+    <row r="6" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+    </row>
+    <row r="7" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+    </row>
+    <row r="8" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+    </row>
+    <row r="9" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+    </row>
+    <row r="10" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+    </row>
+    <row r="11" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+    </row>
+    <row r="12" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+    </row>
+    <row r="13" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+    </row>
+    <row r="14" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+    </row>
+    <row r="15" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+    </row>
+    <row r="16" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+    </row>
+    <row r="17" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+    </row>
+    <row r="18" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+    </row>
+    <row r="19" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+    </row>
+    <row r="20" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+    </row>
+    <row r="22" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+    </row>
+    <row r="23" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+    </row>
+    <row r="24" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+    </row>
+    <row r="25" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+    </row>
+    <row r="26" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+    </row>
+    <row r="27" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+    </row>
+    <row r="28" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+    </row>
+    <row r="29" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+    </row>
+    <row r="30" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+    </row>
+    <row r="31" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+    </row>
+    <row r="32" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+    </row>
+    <row r="33" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+    </row>
+    <row r="34" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+    </row>
+    <row r="35" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+    </row>
+    <row r="36" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+    </row>
+    <row r="37" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+    </row>
+    <row r="38" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+    </row>
+    <row r="39" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+    </row>
+    <row r="40" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:AD40"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>